--- a/DoAn/QLTS/wwwroot/Content/files/Import_Maintainance.xlsx
+++ b/DoAn/QLTS/wwwroot/Content/files/Import_Maintainance.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF10336A-BD64-49D7-9CE0-A96290F8103C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,18 +37,6 @@
     <t>TechnicalStaffID</t>
   </si>
   <si>
-    <t>12af225a-4391-4564-e4d5-a3d7c1bf76fb</t>
-  </si>
-  <si>
-    <t>14ea04f5-358f-6b18-dca5-2a55db0259fe</t>
-  </si>
-  <si>
-    <t>13d858da-6206-12d9-8745-587bf666e38b</t>
-  </si>
-  <si>
-    <t>1a79e25d-15ed-25af-66ef-5e83c2936996</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -55,12 +44,24 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>6b38ddb6-1cdc-5f7b-6efa-d9c911cf4972</t>
+  </si>
+  <si>
+    <t>375e8f77-3102-4813-5cc4-b9aac0c0d908</t>
+  </si>
+  <si>
+    <t>5c1a8653-7790-743f-c400-73728ad2d17f</t>
+  </si>
+  <si>
+    <t>724cda7e-3e73-6365-b639-7fa89fdac40f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,11 +389,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -400,7 +401,7 @@
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.77734375" customWidth="1"/>
     <col min="7" max="7" width="24.88671875" customWidth="1"/>
   </cols>
@@ -422,10 +423,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -433,7 +434,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>44306</v>
@@ -442,13 +443,13 @@
         <v>44346</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -456,7 +457,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3">
         <v>44377</v>
@@ -465,13 +466,13 @@
         <v>44392</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
